--- a/public/sample_Excel/Sample-Excel.xlsx
+++ b/public/sample_Excel/Sample-Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="14630" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="export_All-Users_2022-12-16_09-" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Role</t>
   </si>
@@ -34,6 +34,15 @@
     <t>Active Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>subscriber</t>
   </si>
   <si>
@@ -49,7 +58,13 @@
     <t>Pro</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>zzzz@gmail.com</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
   <si>
     <t>registered</t>
@@ -63,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -85,6 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -108,6 +131,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -116,10 +191,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,9 +215,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,111 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +283,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,163 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +474,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,36 +536,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,160 +577,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,13 +993,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -983,9 +1007,11 @@
     <col min="4" max="4" width="15.4545454545455" customWidth="1"/>
     <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="19.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="16.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="15.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,118 +1030,139 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="G2">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
         <v>30</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G3">
+        <v>987654322</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
         <v>30</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
